--- a/excel/model/model.xlsx
+++ b/excel/model/model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pierry.benoit\Documents\GitHub\Video_check_fodler_moved\excel\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{20AD7CB8-AC90-413B-94A7-BBAC7B810CB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26490EF3-581B-49A5-9948-AA463E8B7217}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-6440" windowWidth="38620" windowHeight="21220" xr2:uid="{684122A6-D2A8-4454-BF75-BB01F865F915}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{684122A6-D2A8-4454-BF75-BB01F865F915}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -1517,30 +1517,30 @@
   <dimension ref="A1:T46"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:Q1"/>
+      <selection activeCell="H33" activeCellId="1" sqref="N30 H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.6640625" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.33203125" customWidth="1"/>
     <col min="4" max="4" width="15.33203125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.33203125" customWidth="1"/>
     <col min="6" max="6" width="13.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.33203125" style="7" customWidth="1"/>
     <col min="8" max="8" width="13.88671875" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.33203125" customWidth="1"/>
     <col min="10" max="10" width="13.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="27.33203125" customWidth="1"/>
     <col min="12" max="12" width="13.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="23.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="27.33203125" style="9" customWidth="1"/>
     <col min="14" max="14" width="13.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" customWidth="1"/>
+    <col min="15" max="15" width="27.33203125" customWidth="1"/>
     <col min="16" max="16" width="12.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="21.109375" customWidth="1"/>
+    <col min="17" max="17" width="27.33203125" customWidth="1"/>
     <col min="18" max="18" width="13.88671875" style="11" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="22.6640625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="27.33203125" style="1" customWidth="1"/>
     <col min="20" max="20" width="13.88671875" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2046,21 +2046,21 @@
       <c r="C21" s="28"/>
       <c r="D21" s="2"/>
       <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
+      <c r="F21" s="12"/>
       <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
+      <c r="H21" s="12"/>
       <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
+      <c r="J21" s="12"/>
       <c r="K21" s="28"/>
-      <c r="L21" s="28"/>
+      <c r="L21" s="12"/>
       <c r="M21" s="28"/>
-      <c r="N21" s="28"/>
+      <c r="N21" s="12"/>
       <c r="O21" s="28"/>
-      <c r="P21" s="28"/>
+      <c r="P21" s="12"/>
       <c r="Q21" s="28"/>
-      <c r="R21" s="28"/>
+      <c r="R21" s="12"/>
       <c r="S21" s="28"/>
-      <c r="T21" s="28"/>
+      <c r="T21" s="12"/>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22" s="13"/>
@@ -2068,21 +2068,21 @@
       <c r="C22" s="28"/>
       <c r="D22" s="2"/>
       <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
+      <c r="F22" s="12"/>
       <c r="G22" s="28"/>
-      <c r="H22" s="28"/>
+      <c r="H22" s="12"/>
       <c r="I22" s="28"/>
-      <c r="J22" s="28"/>
+      <c r="J22" s="12"/>
       <c r="K22" s="28"/>
-      <c r="L22" s="28"/>
+      <c r="L22" s="12"/>
       <c r="M22" s="28"/>
-      <c r="N22" s="28"/>
+      <c r="N22" s="12"/>
       <c r="O22" s="28"/>
-      <c r="P22" s="28"/>
+      <c r="P22" s="12"/>
       <c r="Q22" s="28"/>
-      <c r="R22" s="28"/>
+      <c r="R22" s="12"/>
       <c r="S22" s="28"/>
-      <c r="T22" s="28"/>
+      <c r="T22" s="12"/>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A23" s="13"/>
@@ -2090,21 +2090,21 @@
       <c r="C23" s="28"/>
       <c r="D23" s="2"/>
       <c r="E23" s="28"/>
-      <c r="F23" s="2"/>
+      <c r="F23" s="12"/>
       <c r="G23" s="28"/>
-      <c r="H23" s="2"/>
+      <c r="H23" s="12"/>
       <c r="I23" s="28"/>
-      <c r="J23" s="2"/>
+      <c r="J23" s="12"/>
       <c r="K23" s="28"/>
-      <c r="L23" s="2"/>
+      <c r="L23" s="12"/>
       <c r="M23" s="28"/>
-      <c r="N23" s="2"/>
+      <c r="N23" s="12"/>
       <c r="O23" s="28"/>
-      <c r="P23" s="2"/>
+      <c r="P23" s="12"/>
       <c r="Q23" s="28"/>
-      <c r="R23" s="2"/>
+      <c r="R23" s="12"/>
       <c r="S23" s="28"/>
-      <c r="T23" s="2"/>
+      <c r="T23" s="12"/>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A24" s="13"/>
@@ -2112,43 +2112,43 @@
       <c r="C24" s="28"/>
       <c r="D24" s="2"/>
       <c r="E24" s="28"/>
-      <c r="F24" s="2"/>
+      <c r="F24" s="12"/>
       <c r="G24" s="28"/>
-      <c r="H24" s="2"/>
+      <c r="H24" s="12"/>
       <c r="I24" s="28"/>
-      <c r="J24" s="2"/>
+      <c r="J24" s="12"/>
       <c r="K24" s="28"/>
-      <c r="L24" s="2"/>
+      <c r="L24" s="12"/>
       <c r="M24" s="28"/>
-      <c r="N24" s="2"/>
+      <c r="N24" s="12"/>
       <c r="O24" s="28"/>
-      <c r="P24" s="2"/>
+      <c r="P24" s="12"/>
       <c r="Q24" s="28"/>
-      <c r="R24" s="2"/>
+      <c r="R24" s="12"/>
       <c r="S24" s="28"/>
-      <c r="T24" s="2"/>
+      <c r="T24" s="12"/>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A25" s="13"/>
       <c r="B25" s="27"/>
       <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
+      <c r="D25" s="12"/>
       <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
+      <c r="F25" s="12"/>
       <c r="G25" s="28"/>
-      <c r="H25" s="28"/>
+      <c r="H25" s="12"/>
       <c r="I25" s="28"/>
-      <c r="J25" s="28"/>
+      <c r="J25" s="12"/>
       <c r="K25" s="28"/>
-      <c r="L25" s="28"/>
+      <c r="L25" s="12"/>
       <c r="M25" s="28"/>
-      <c r="N25" s="28"/>
+      <c r="N25" s="12"/>
       <c r="O25" s="28"/>
-      <c r="P25" s="28"/>
+      <c r="P25" s="12"/>
       <c r="Q25" s="28"/>
-      <c r="R25" s="28"/>
+      <c r="R25" s="12"/>
       <c r="S25" s="28"/>
-      <c r="T25" s="28"/>
+      <c r="T25" s="12"/>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A26" s="13"/>
@@ -2156,7 +2156,7 @@
       <c r="C26" s="28"/>
       <c r="D26" s="2"/>
       <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
+      <c r="F26" s="2"/>
       <c r="G26" s="28"/>
       <c r="H26" s="2"/>
       <c r="I26" s="28"/>
@@ -2165,11 +2165,11 @@
       <c r="L26" s="2"/>
       <c r="M26" s="28"/>
       <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
+      <c r="O26" s="28"/>
       <c r="P26" s="2"/>
-      <c r="Q26" s="2"/>
+      <c r="Q26" s="28"/>
       <c r="R26" s="2"/>
-      <c r="S26" s="2"/>
+      <c r="S26" s="28"/>
       <c r="T26" s="2"/>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.3">
@@ -2296,14 +2296,14 @@
     <mergeCell ref="R1:T2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A4:T4 A5:C24 E21:T22 E5:E20 G5:G20 K5:K20 I5:I20 M5:M20 O5:O20 Q5:Q20 E23:E24 G23:G24 A25:T25 I23:I24 K23:K24 O23:O24 Q23:Q24 S23:S24 M26 I26 A26:C26 E26:G26 K26 S5:S20 M23:M24">
+  <conditionalFormatting sqref="A4:T4 A5:C26 E5:E26 G5:G26 I5:I26 K5:K26 M5:M26 O5:O26 Q5:Q26 S5:S26">
     <cfRule type="cellIs" dxfId="24" priority="1" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="40" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="35" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <tableParts count="1">
     <tablePart r:id="rId3"/>
@@ -2312,15 +2312,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="deb2a688-6c76-4372-9785-3020d90223f3" xsi:nil="true"/>
@@ -2329,6 +2320,15 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2573,14 +2573,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D700FFA8-1B66-4B06-9505-E8B3B122879F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D2A3281D-03BC-4593-89E7-661274A2C566}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -2593,6 +2585,14 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D700FFA8-1B66-4B06-9505-E8B3B122879F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
